--- a/src/main/java/Resources/CN_test_data.xlsx
+++ b/src/main/java/Resources/CN_test_data.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>deptCode</t>
   </si>
@@ -28,13 +27,37 @@
     <t>bookNumber</t>
   </si>
   <si>
-    <t>dept 1</t>
-  </si>
-  <si>
-    <t>FT1</t>
-  </si>
-  <si>
-    <t>BN1</t>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>numberOfbooks</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>bookletNature</t>
+  </si>
+  <si>
+    <t>numberOfPages</t>
+  </si>
+  <si>
+    <t>fromNumber</t>
+  </si>
+  <si>
+    <t>NAT</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -70,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -380,9 +404,10 @@
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,20 +417,51 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
         <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/java/Resources/CN_test_data.xlsx
+++ b/src/main/java/Resources/CN_test_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2520" windowWidth="14475" windowHeight="6435"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>deptCode</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>bookPrefix</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -390,24 +402,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,53 +428,59 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2">
-        <v>3</v>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/java/Resources/CN_test_data.xlsx
+++ b/src/main/java/Resources/CN_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14475" windowHeight="6435"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="9270" windowHeight="3210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>deptCode</t>
   </si>
@@ -27,9 +27,6 @@
     <t>bookNumber</t>
   </si>
   <si>
-    <t>Law</t>
-  </si>
-  <si>
     <t>BP</t>
   </si>
   <si>
@@ -57,32 +54,207 @@
     <t>OPEN</t>
   </si>
   <si>
+    <t>bookPrefix</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>LOV</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>noOfPages</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>bookPrefix</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Non-Life</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>RequestFrom</t>
+  </si>
+  <si>
+    <t>IT Dept</t>
+  </si>
+  <si>
+    <t>CategorySearch</t>
+  </si>
+  <si>
+    <t>ItemDescription</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>cover note 5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>SRNSearch</t>
+  </si>
+  <si>
+    <t>SRN</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>RequestType</t>
+  </si>
+  <si>
+    <t>//covernote assign</t>
+  </si>
+  <si>
+    <t>//Addnewbook</t>
+  </si>
+  <si>
+    <t>Book Type</t>
+  </si>
+  <si>
+    <t>Manual Covernote</t>
+  </si>
+  <si>
+    <t>Inlieu Book</t>
+  </si>
+  <si>
+    <t>RequestTypeII</t>
+  </si>
+  <si>
+    <t>Initial Book</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>//RequestCN</t>
+  </si>
+  <si>
+    <t>BookType</t>
+  </si>
+  <si>
+    <t>Agent_Code</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>0001606 - M Silmy Mohamed</t>
+  </si>
+  <si>
+    <t>0003209 - Assetline Insurance Brokers Ltd</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>RequestTypeIII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//Add Inlieu Book  </t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>pword</t>
+  </si>
+  <si>
+    <t>confirmpword</t>
+  </si>
+  <si>
+    <t>Darshika</t>
+  </si>
+  <si>
+    <t>Herath</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>colombo</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>TEST123</t>
+  </si>
+  <si>
+    <t>SRI LANKA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,14 +274,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,96 +606,530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="1" spans="1:12" s="3" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="30">
+      <c r="A2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="8">
+        <v>712356987</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="8">
+        <v>200</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="17.25" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="6"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="1"/>
+      <c r="D15"/>
+      <c r="H15" s="1"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.5" customHeight="1"/>
+    <row r="17" spans="1:9" ht="27" customHeight="1">
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="5"/>
+      <c r="F21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -500,9 +1138,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
